--- a/MainTop/08.09.2024/печать_бирки.xlsx
+++ b/MainTop/08.09.2024/печать_бирки.xlsx
@@ -101,9 +101,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -178,7 +177,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,7 +201,7 @@
   <dimension ref="A1:K166"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -237,7 +236,7 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -263,19 +262,14 @@
       <c r="G2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <f aca="false">ROUND(C2*K2,0)</f>
-        <v>51</v>
-      </c>
-      <c r="I2" s="1" t="n">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <f aca="false">J2*2</f>
         <v>72</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <f aca="false">I2/2</f>
-        <v>36</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -300,18 +294,14 @@
       <c r="G3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <f aca="false">ROUND(C3*K3,0)</f>
-        <v>58</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>62</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="0" t="n">
         <v>25</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>5</v>
+        <f aca="false">J3*2</f>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,18 +326,14 @@
       <c r="G4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <f aca="false">ROUND(C4*K4,0)</f>
-        <v>38</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>42</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="0" t="n">
         <v>20</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>5</v>
+        <f aca="false">J4*2</f>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,18 +358,14 @@
       <c r="G5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">ROUND(C5*K5,0)</f>
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>34</v>
-      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="0" t="n">
         <v>16</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>5</v>
+        <f aca="false">J5*2</f>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,19 +390,14 @@
       <c r="G6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">ROUND(C6*K6,0)</f>
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="n">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <f aca="false">J6*2</f>
         <v>32</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <f aca="false">I6/2</f>
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,18 +422,14 @@
       <c r="G7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">ROUND(C7*K7,0)</f>
-        <v>23</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>22</v>
-      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="0" t="n">
         <v>12</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>5</v>
+        <f aca="false">J7*2</f>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,18 +454,14 @@
       <c r="G8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <f aca="false">ROUND(C8*K8,0)</f>
-        <v>19</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>22</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="0" t="n">
         <v>12</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>5</v>
+        <f aca="false">J8*2</f>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,18 +486,14 @@
       <c r="G9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">ROUND(C9*K9,0)</f>
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>14</v>
-      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>5</v>
+        <f aca="false">J9*2</f>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,19 +518,14 @@
       <c r="G10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">ROUND(C10*K10,0)</f>
-        <v>11</v>
-      </c>
-      <c r="I10" s="1" t="n">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <f aca="false">J10*2</f>
         <v>14</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <f aca="false">I10/2</f>
-        <v>7</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -590,19 +550,14 @@
       <c r="G11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">ROUND(C11*K11,0)</f>
-        <v>10</v>
-      </c>
-      <c r="I11" s="1" t="n">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <f aca="false">J11*2</f>
         <v>12</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <f aca="false">I11/2</f>
-        <v>6</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,19 +582,14 @@
       <c r="G12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <f aca="false">ROUND(C12*K12,0)</f>
-        <v>9</v>
-      </c>
-      <c r="I12" s="1" t="n">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <f aca="false">J12*2</f>
         <v>8</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <f aca="false">I12/2</f>
-        <v>4</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,19 +614,14 @@
       <c r="G13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false">ROUND(C13*K13,0)</f>
-        <v>9</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>10</v>
-      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="0" t="n">
-        <f aca="false">I13/2</f>
         <v>5</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>5</v>
+        <f aca="false">J13*2</f>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,19 +646,14 @@
       <c r="G14" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false">ROUND(C14*K14,0)</f>
-        <v>5</v>
-      </c>
-      <c r="I14" s="1" t="n">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <f aca="false">J14*2</f>
         <v>6</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <f aca="false">I14/2</f>
-        <v>3</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,33 +678,18 @@
       <c r="G15" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <f aca="false">ROUND(C15*K15,0)</f>
-        <v>88</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="J15" s="0" t="n">
         <v>40</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>5</v>
+        <f aca="false">J15*2</f>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="1" t="n">
-        <f aca="false">SUM(H2:H15)</f>
-        <v>392</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <f aca="false">SUM(I2:I15)</f>
-        <v>440</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <f aca="false">SUM(J2:J15)</f>
-        <v>210</v>
-      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
